--- a/CashFlow/ULTA_cashflow.xlsx
+++ b/CashFlow/ULTA_cashflow.xlsx
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>5317000000.0</v>
+        <v>125486000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>5443000000.0</v>
+        <v>177822000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>3703079000.0</v>
+        <v>-52544000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>2268117000.0</v>
+        <v>-90529000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>891409000.0</v>
+        <v>-79372000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-136469000.0</v>
@@ -990,19 +990,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>62324000.0</v>
+        <v>1820000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-118647000.0</v>
+        <v>1757000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-173732000.0</v>
+        <v>1303738000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>-120881000.0</v>
+        <v>893138000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>-157875000.0</v>
+        <v>437109000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>10223000.0</v>
